--- a/RTL/PWM/PWM Registers.xlsx
+++ b/RTL/PWM/PWM Registers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosuv\Desktop\Disertatie\RISC-V_Microcontroller\RTL\PWM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF12660E-E733-4B5A-9C9C-7FBFFBC4046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E81A0-EFC6-41C5-A306-8C14F3237FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2F59BC8-B028-4C30-AFB2-8B1588A6E92D}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>CLKSRC[1]</t>
   </si>
   <si>
-    <t>USESCLK</t>
-  </si>
-  <si>
     <t>RST</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>PWM Registers</t>
+  </si>
+  <si>
+    <t>CLKSRC[2]</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3234D1-D8E4-42D2-A322-A69FD8618541}">
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,42 +867,42 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -919,28 +919,28 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>13</v>
@@ -1099,10 +1099,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>13</v>
@@ -1181,23 +1181,23 @@
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>11</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,28 +1401,28 @@
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,28 +1496,28 @@
     </row>
     <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
     </row>
     <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1612,28 +1612,28 @@
     </row>
     <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1707,28 +1707,28 @@
     </row>
     <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1802,28 +1802,28 @@
     </row>
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1897,28 +1897,28 @@
     </row>
     <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
     </row>
     <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1987,28 +1987,28 @@
     </row>
     <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,28 +2082,28 @@
     </row>
     <row r="79" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2177,28 +2177,28 @@
     </row>
     <row r="83" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2272,28 +2272,28 @@
     </row>
     <row r="87" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
